--- a/biology/Zoologie/Hyolitha/Hyolitha.xlsx
+++ b/biology/Zoologie/Hyolitha/Hyolitha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyolitha est une classe d'animaux éteints. Ils étaient communs à l'ère paléozoïque, du Cambrien au Permien[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyolitha est une classe d'animaux éteints. Ils étaient communs à l'ère paléozoïque, du Cambrien au Permien,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hyolithes sont caractérisés par la présence d'un opercule, d'un exosquelette (ou coquille) en forme de cône et, selon les taxons, de deux appendices latéraux désignés sous le terme de « helens »[3],[1],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hyolithes sont caractérisés par la présence d'un opercule, d'un exosquelette (ou coquille) en forme de cône et, selon les taxons, de deux appendices latéraux désignés sous le terme de « helens ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hyolithes ont été d'abord assignés à l'embranchement des mollusques, mais cette classification a été remise en cause et leur position phylogénétique est restée incertaine[1],[3],[5]. De plus récentes recherches ont permis de fonder l'hypothèse qu'ils appartiendraient au groupe des Lophophorata[3],[6],[7],[5]. Cependant, aucune preuve n'est venue confirmée cette hypothèse[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hyolithes ont été d'abord assignés à l'embranchement des mollusques, mais cette classification a été remise en cause et leur position phylogénétique est restée incertaine. De plus récentes recherches ont permis de fonder l'hypothèse qu'ils appartiendraient au groupe des Lophophorata. Cependant, aucune preuve n'est venue confirmée cette hypothèse.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>† ordre Hyolithida
 † ordre Hyolithomorpha
